--- a/survey/frost/power_bi/area.xlsx
+++ b/survey/frost/power_bi/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hb-fidy\Desktop\Python\survey_proj\survey\frost\power_bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEDC3F6-9758-4329-A557-D0F7CD16B0DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A23ECB-01F6-4904-B59C-6C9D782B811C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="1650" windowWidth="15150" windowHeight="11505" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$C$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -57,115 +65,115 @@
     <t>W02-D-Evere-FH01</t>
   </si>
   <si>
-    <t>EVERE – FH01</t>
-  </si>
-  <si>
     <t>W03-C-Antwerpen-West-FH02</t>
   </si>
   <si>
-    <t>ANTWERPEN-WEST – FH02</t>
-  </si>
-  <si>
     <t>W03-C-Antwerpen-West-FH03</t>
   </si>
   <si>
-    <t>ANTWERPEN-WEST – FH03</t>
-  </si>
-  <si>
     <t>W03-C-Antwerpen-West-FH04</t>
   </si>
   <si>
-    <t>ANTWERPEN-WEST – FH04</t>
-  </si>
-  <si>
     <t>W03-C-Antwerpen-West-FH06</t>
   </si>
   <si>
-    <t>ANTWERPEN-WEST – FH06</t>
-  </si>
-  <si>
     <t>W03-C-Antwerpen-West-FH07</t>
   </si>
   <si>
-    <t>ANTWERPEN-WEST – FH07</t>
-  </si>
-  <si>
     <t>W03-C-Knokke-Heist-FH01</t>
   </si>
   <si>
     <t>W03-D-Hasselt-FH04</t>
   </si>
   <si>
-    <t>HASSELT – FH04</t>
-  </si>
-  <si>
     <t>W03-C-Knokke-Heist-FH11</t>
   </si>
   <si>
-    <t>KNOKKE–HEIST – FH11</t>
-  </si>
-  <si>
     <t>W03-C-Knokke-Heist-FH09</t>
   </si>
   <si>
-    <t>KNOKKE–HEIST – FH09</t>
-  </si>
-  <si>
     <t>W01-C-Roeselare-FH04</t>
   </si>
   <si>
-    <t>ROESELARE – FH04</t>
-  </si>
-  <si>
     <t>W02-D-Hasselt-FH01</t>
   </si>
   <si>
-    <t>HASSELT – FH01</t>
-  </si>
-  <si>
     <t>W02-D-Hasselt-FH02</t>
   </si>
   <si>
-    <t>HASSELT – FH02</t>
-  </si>
-  <si>
     <t>W02-D-Leuven-FH03</t>
   </si>
   <si>
-    <t>HASSELT – FH03</t>
-  </si>
-  <si>
     <t>W03-D-Mechelen-FH01</t>
   </si>
   <si>
-    <t>MECHELEN – FH01</t>
-  </si>
-  <si>
     <t>W03-D-Sint-Niklaas-FH01</t>
   </si>
   <si>
-    <t>SINT-NIKLAAS – FH01</t>
-  </si>
-  <si>
     <t>W02-D-Evere-FH02</t>
   </si>
   <si>
-    <t>EVERE – FH02</t>
-  </si>
-  <si>
     <t>W02-D-Leuven-FH01</t>
   </si>
   <si>
-    <t>LEUVEN – FH01</t>
-  </si>
-  <si>
     <t>W01-C-Roeselare-FH03</t>
   </si>
   <si>
-    <t>ROESELARE – FH03</t>
-  </si>
-  <si>
     <t>KNOKKE - FH01</t>
+  </si>
+  <si>
+    <t>ANTWERPEN-WEST - FH07</t>
+  </si>
+  <si>
+    <t>KNOKKE-HEIST - FH09</t>
+  </si>
+  <si>
+    <t>KNOKKE-HEIST - FH11</t>
+  </si>
+  <si>
+    <t>HASSELT - FH04</t>
+  </si>
+  <si>
+    <t>ANTWERPEN-WEST - FH06</t>
+  </si>
+  <si>
+    <t>ANTWERPEN-WEST - FH04</t>
+  </si>
+  <si>
+    <t>ANTWERPEN-WEST - FH03</t>
+  </si>
+  <si>
+    <t>ANTWERPEN-WEST - FH02</t>
+  </si>
+  <si>
+    <t>EVERE - FH01</t>
+  </si>
+  <si>
+    <t>ROESELARE - FH04</t>
+  </si>
+  <si>
+    <t>HASSELT - FH01</t>
+  </si>
+  <si>
+    <t>HASSELT - FH02</t>
+  </si>
+  <si>
+    <t>HASSELT - FH03</t>
+  </si>
+  <si>
+    <t>MECHELEN - FH01</t>
+  </si>
+  <si>
+    <t>SINT-NIKLAAS - FH01</t>
+  </si>
+  <si>
+    <t>EVERE - FH02</t>
+  </si>
+  <si>
+    <t>LEUVEN - FH01</t>
+  </si>
+  <si>
+    <t>ROESELARE - FH03</t>
   </si>
 </sst>
 </file>
@@ -538,7 +546,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +596,7 @@
         <v>15485</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,13 +604,13 @@
         <v>8106383</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>19079</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -610,13 +618,13 @@
         <v>6802502</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <v>19080</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,13 +632,13 @@
         <v>6802831</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>19081</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +646,13 @@
         <v>6804453</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>19083</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,13 +660,13 @@
         <v>6807323</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>19084</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -666,13 +674,13 @@
         <v>7574792</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1">
         <v>19625</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -680,13 +688,13 @@
         <v>10432739</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
         <v>23997</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,13 +702,13 @@
         <v>8387197</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>21143</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -708,13 +716,13 @@
         <v>8389069</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>21235</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,13 +730,13 @@
         <v>4547963</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>12267</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,13 +744,13 @@
         <v>5579060</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <v>15489</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -750,13 +758,13 @@
         <v>5577301</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>15491</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,13 +772,13 @@
         <v>5623303</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1">
         <v>15483</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -778,13 +786,13 @@
         <v>6833207</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <v>19106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,13 +800,13 @@
         <v>6832225</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>19108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,13 +814,13 @@
         <v>12625905</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>27683</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,13 +828,13 @@
         <v>5623248</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>15481</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,13 +842,13 @@
         <v>4547957</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>12266</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">

--- a/survey/frost/power_bi/area.xlsx
+++ b/survey/frost/power_bi/area.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hb-fidy\Desktop\Python\survey_proj\survey\frost\power_bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A23ECB-01F6-4904-B59C-6C9D782B811C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DB7486-1A29-4A35-B1A3-B1B7F0E130EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,6 @@
     <t>HASSELT - FH02</t>
   </si>
   <si>
-    <t>HASSELT - FH03</t>
-  </si>
-  <si>
     <t>MECHELEN - FH01</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>ROESELARE - FH03</t>
+  </si>
+  <si>
+    <t>LEUVEN - FH03</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +778,7 @@
         <v>15483</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>19106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>19108</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -820,7 +820,7 @@
         <v>27683</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,7 +834,7 @@
         <v>15481</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -848,10 +848,11 @@
         <v>12266</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
